--- a/lessons/example.xlsx
+++ b/lessons/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annie\Desktop\pandas\lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15644906-68BA-4283-861E-790E25B4C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E5790-8C0B-41FA-87B6-0ACC796C1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
